--- a/trunk/TEMP/level.xlsx
+++ b/trunk/TEMP/level.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cocos2DX\projects\PhiCongButChi\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cocos2DX\projects\PhiCongButChi\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -236,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,67 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -694,17 +652,11 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -752,6 +704,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF820000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1026,95 +983,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X148"/>
+  <dimension ref="A1:EB148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="3"/>
-    <col min="21" max="21" width="9.140625" style="3"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="U1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1137,18 +1107,18 @@
         <v>-0.19</v>
       </c>
       <c r="H2">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="6">
-        <v>11</v>
-      </c>
-      <c r="K2" s="12">
-        <f>J2-3</f>
+        <v>0.35</v>
+      </c>
+      <c r="J2" s="3">
         <v>8</v>
       </c>
+      <c r="K2" s="4">
+        <f>J2</f>
+        <v>8</v>
+      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -1189,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -1212,20 +1182,21 @@
         <v>-0.19</v>
       </c>
       <c r="H3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" ref="K3:N66" si="0">J3-3</f>
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>0.32</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K11" si="0">J3</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="5">
+        <f>K3-1</f>
+        <v>9</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1237,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1264,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40000</v>
       </c>
@@ -1287,21 +1258,22 @@
         <v>-0.19</v>
       </c>
       <c r="H4">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L12" si="1">K4-1</f>
         <v>11</v>
       </c>
-      <c r="K4" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
@@ -1309,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1339,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60000</v>
       </c>
@@ -1362,35 +1334,37 @@
         <v>-0.19</v>
       </c>
       <c r="H5">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>11</v>
-      </c>
-      <c r="K5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M16" si="2">L5-4</f>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1414,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80000</v>
       </c>
@@ -1437,38 +1411,40 @@
         <v>-0.19</v>
       </c>
       <c r="H6">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="6">
-        <v>11</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="10">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6" si="3">M6-3</f>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1489,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100000</v>
       </c>
@@ -1511,42 +1487,44 @@
       <c r="G7" s="1">
         <v>-0.19</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="5">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="0"/>
+      <c r="H7">
+        <v>0.34</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="10">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L7" s="1">
-        <v>6</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
+      <c r="N7" s="7">
+        <f>M7-3</f>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
       </c>
       <c r="P7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1563,8 +1541,15 @@
       <c r="X7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AV7"/>
+      <c r="BQ7"/>
+      <c r="CL7"/>
+      <c r="DG7"/>
+      <c r="EB7"/>
+    </row>
+    <row r="8" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>120000</v>
       </c>
@@ -1587,45 +1572,47 @@
         <v>-0.19</v>
       </c>
       <c r="H8">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>12</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="10">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L8" s="15">
-        <f>K8-3</f>
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:N27" si="4">M8-3</f>
+        <v>6</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <f t="shared" ref="Q8" si="5">P8-1</f>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="2">
         <v>1</v>
@@ -1640,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>140000</v>
       </c>
@@ -1663,45 +1650,47 @@
         <v>-0.19</v>
       </c>
       <c r="H9">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="5">
-        <v>12</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>14</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L9" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="N9" s="7">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <f t="shared" ref="Q9" si="6">P9-1</f>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
         <v>1</v>
@@ -1716,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>160000</v>
       </c>
@@ -1739,45 +1728,49 @@
         <v>-0.19</v>
       </c>
       <c r="H10">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="5">
-        <v>12</v>
-      </c>
-      <c r="K10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>16</v>
+      </c>
+      <c r="K10" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <f t="shared" ref="Q10" si="7">P10-1</f>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <f t="shared" ref="Q10:S17" si="8">Q10-1</f>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
         <v>1</v>
@@ -1792,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>180000</v>
       </c>
@@ -1815,45 +1808,49 @@
         <v>-0.19</v>
       </c>
       <c r="H11">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="5">
-        <v>12</v>
-      </c>
-      <c r="K11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="11">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <f t="shared" ref="Q11" si="9">P11-1</f>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200000</v>
       </c>
@@ -1891,45 +1888,49 @@
         <v>-0.19</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="3">
         <v>12</v>
       </c>
-      <c r="K12" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="K12" s="10">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>1</v>
@@ -1944,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>220000</v>
       </c>
@@ -1967,45 +1968,48 @@
         <v>-0.19</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="3">
         <v>12</v>
       </c>
-      <c r="K13" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
+      <c r="K13" s="10">
+        <v>16</v>
+      </c>
+      <c r="L13" s="10">
+        <v>15</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
@@ -2020,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>240000</v>
       </c>
@@ -2043,45 +2047,48 @@
         <v>-0.19</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="3">
         <v>12</v>
       </c>
-      <c r="K14" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
+      <c r="K14" s="10">
+        <v>16</v>
+      </c>
+      <c r="L14" s="10">
+        <v>15</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
         <v>1</v>
@@ -2096,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>260000</v>
       </c>
@@ -2119,45 +2126,49 @@
         <v>-0.19</v>
       </c>
       <c r="H15">
-        <v>0.39</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="3">
         <v>12</v>
       </c>
-      <c r="K15" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+      <c r="K15" s="4">
+        <f>J15</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="10">
+        <v>15</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
         <v>1</v>
@@ -2172,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>280000</v>
       </c>
@@ -2195,45 +2206,49 @@
         <v>-0.19</v>
       </c>
       <c r="H16">
-        <v>0.39</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="3">
         <v>12</v>
       </c>
-      <c r="K16" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:K79" si="10">J16</f>
+        <v>12</v>
+      </c>
+      <c r="L16" s="10">
+        <v>15</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2">
         <v>1</v>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>300000</v>
       </c>
@@ -2270,47 +2285,48 @@
       <c r="G17" s="1">
         <v>-0.19</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J17" s="7">
-        <v>13</v>
-      </c>
-      <c r="K17" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="H17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="L17" s="10">
+        <v>15</v>
+      </c>
+      <c r="M17" s="6">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>P17-1</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -2324,8 +2340,15 @@
       <c r="X17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AV17"/>
+      <c r="BQ17"/>
+      <c r="CL17"/>
+      <c r="DG17"/>
+      <c r="EB17"/>
+    </row>
+    <row r="18" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>320000</v>
       </c>
@@ -2348,47 +2371,48 @@
         <v>-0.19</v>
       </c>
       <c r="H18">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
-      </c>
-      <c r="J18" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="L18" s="5">
+        <f>K18+3</f>
+        <v>12</v>
+      </c>
+      <c r="M18" s="6">
         <v>13</v>
       </c>
-      <c r="K18" s="12">
-        <f t="shared" si="0"/>
+      <c r="N18" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L18" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M18" s="16">
-        <f>L18-3</f>
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="P18" s="10">
+        <v>5</v>
       </c>
       <c r="Q18">
         <f>P18-1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <f t="shared" ref="Q18:T56" si="11">Q18-1</f>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -2403,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>340000</v>
       </c>
@@ -2426,47 +2450,48 @@
         <v>-0.19</v>
       </c>
       <c r="H19">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I19">
-        <v>0.25</v>
-      </c>
-      <c r="J19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>9</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" ref="L19:L32" si="12">K19+3</f>
+        <v>12</v>
+      </c>
+      <c r="M19" s="6">
         <v>13</v>
       </c>
-      <c r="K19" s="12">
-        <f t="shared" si="0"/>
+      <c r="N19" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L19" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M19" s="16">
-        <f t="shared" si="0"/>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ref="Q19:T82" si="1">P19-1</f>
-        <v>1</v>
-      </c>
       <c r="R19">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19" s="3">
         <v>0</v>
@@ -2481,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>360000</v>
       </c>
@@ -2504,47 +2529,49 @@
         <v>-0.19</v>
       </c>
       <c r="H20">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I20">
-        <v>0.25</v>
-      </c>
-      <c r="J20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="M20" s="6">
         <v>13</v>
       </c>
-      <c r="K20" s="12">
-        <f t="shared" si="0"/>
+      <c r="N20" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L20" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M20" s="16">
-        <f t="shared" si="0"/>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R20">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -2559,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>380000</v>
       </c>
@@ -2582,47 +2609,49 @@
         <v>-0.2</v>
       </c>
       <c r="H21">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I21">
-        <v>0.25</v>
-      </c>
-      <c r="J21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="M21" s="6">
         <v>13</v>
       </c>
-      <c r="K21" s="12">
-        <f t="shared" si="0"/>
+      <c r="N21" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L21" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M21" s="16">
-        <f t="shared" si="0"/>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R21">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -2637,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>400000</v>
       </c>
@@ -2660,47 +2689,49 @@
         <v>-0.2</v>
       </c>
       <c r="H22">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I22">
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="M22" s="6">
         <v>13</v>
       </c>
-      <c r="K22" s="12">
-        <f t="shared" si="0"/>
+      <c r="N22" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L22" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M22" s="16">
-        <f t="shared" si="0"/>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R22">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -2715,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>420000</v>
       </c>
@@ -2738,47 +2769,49 @@
         <v>-0.2</v>
       </c>
       <c r="H23">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="I23">
-        <v>0.25</v>
-      </c>
-      <c r="J23" s="7">
-        <v>13</v>
-      </c>
-      <c r="K23" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M23" s="16">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="M23" s="10">
+        <v>15</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R23">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -2793,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>440000</v>
       </c>
@@ -2816,47 +2849,49 @@
         <v>-0.2</v>
       </c>
       <c r="H24">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I24">
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="7">
-        <v>13</v>
-      </c>
-      <c r="K24" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L24" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="M24" s="10">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -2871,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>460000</v>
       </c>
@@ -2894,47 +2929,49 @@
         <v>-0.2</v>
       </c>
       <c r="H25">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I25">
-        <v>0.25</v>
-      </c>
-      <c r="J25" s="7">
-        <v>13</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M25" s="16">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="M25" s="10">
+        <v>15</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R25">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="3">
         <v>0</v>
@@ -2949,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>480000</v>
       </c>
@@ -2972,47 +3009,49 @@
         <v>-0.2</v>
       </c>
       <c r="H26">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I26">
-        <v>0.25</v>
-      </c>
-      <c r="J26" s="7">
-        <v>13</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="M26" s="10">
+        <v>15</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="R26">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -3027,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>500000</v>
       </c>
@@ -3050,49 +3089,47 @@
         <v>-0.2</v>
       </c>
       <c r="H27" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="8">
-        <v>14</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N27" s="1">
-        <f>M27-3</f>
-        <v>2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
+        <v>0.24</v>
+      </c>
+      <c r="I27">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M27" s="10">
+        <v>15</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
       </c>
       <c r="P27" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R27" s="1">
-        <f>Q27-1</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -3106,8 +3143,15 @@
       <c r="X27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AV27"/>
+      <c r="BQ27"/>
+      <c r="CL27"/>
+      <c r="DG27"/>
+      <c r="EB27"/>
+    </row>
+    <row r="28" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>520000</v>
       </c>
@@ -3130,49 +3174,46 @@
         <v>-0.2</v>
       </c>
       <c r="H28">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="I28">
-        <v>0.25</v>
-      </c>
-      <c r="J28" s="8">
-        <v>14</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L28" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N28" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M28" s="6">
+        <v>12</v>
+      </c>
+      <c r="N28" s="9">
+        <v>15</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P28" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>5</v>
       </c>
       <c r="R28">
-        <f>Q28-1</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" s="3">
         <v>0</v>
@@ -3187,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>540000</v>
       </c>
@@ -3210,49 +3251,46 @@
         <v>-0.2</v>
       </c>
       <c r="H29">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="I29">
-        <v>0.25</v>
-      </c>
-      <c r="J29" s="8">
-        <v>14</v>
-      </c>
-      <c r="K29" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M29" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N29" s="17">
-        <f t="shared" ref="N29" si="2">M29-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M29" s="6">
+        <v>12</v>
+      </c>
+      <c r="N29" s="9">
+        <v>15</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>5</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -3267,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>560000</v>
       </c>
@@ -3290,49 +3328,46 @@
         <v>-0.2</v>
       </c>
       <c r="H30">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I30">
-        <v>0.25</v>
-      </c>
-      <c r="J30" s="8">
-        <v>14</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L30" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N30" s="17">
-        <f t="shared" ref="N30" si="3">M30-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M30" s="6">
+        <v>12</v>
+      </c>
+      <c r="N30" s="9">
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>5</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" s="3">
         <v>0</v>
@@ -3347,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>580000</v>
       </c>
@@ -3370,49 +3405,47 @@
         <v>-0.2</v>
       </c>
       <c r="H31">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I31">
-        <v>0.25</v>
-      </c>
-      <c r="J31" s="8">
-        <v>14</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L31" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N31" s="17">
-        <f t="shared" ref="N31" si="4">M31-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M31" s="6">
+        <v>12</v>
+      </c>
+      <c r="N31" s="9">
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P31" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>5</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <f t="shared" ref="S31:S37" si="13">R31-1</f>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" s="3">
         <v>0</v>
@@ -3427,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>600000</v>
       </c>
@@ -3450,49 +3483,47 @@
         <v>-0.2</v>
       </c>
       <c r="H32">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I32">
-        <v>0.25</v>
-      </c>
-      <c r="J32" s="8">
-        <v>14</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" ref="N32" si="5">M32-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M32" s="6">
+        <v>12</v>
+      </c>
+      <c r="N32" s="9">
+        <v>15</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P32" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>5</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -3507,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>620000</v>
       </c>
@@ -3530,49 +3561,46 @@
         <v>-0.2</v>
       </c>
       <c r="H33">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I33">
-        <v>0.25</v>
-      </c>
-      <c r="J33" s="8">
-        <v>14</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N33" s="17">
-        <f t="shared" ref="N33" si="6">M33-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>3</v>
+      </c>
+      <c r="M33" s="6">
+        <v>9</v>
+      </c>
+      <c r="N33" s="9">
+        <v>15</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P33" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>5</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -3587,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>640000</v>
       </c>
@@ -3610,49 +3638,46 @@
         <v>-0.2</v>
       </c>
       <c r="H34">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I34">
-        <v>0.25</v>
-      </c>
-      <c r="J34" s="8">
-        <v>14</v>
-      </c>
-      <c r="K34" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M34" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" ref="N34" si="7">M34-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>3</v>
+      </c>
+      <c r="M34" s="6">
+        <v>9</v>
+      </c>
+      <c r="N34" s="10">
+        <v>17</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P34" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>5</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="3">
         <v>0</v>
@@ -3667,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>660000</v>
       </c>
@@ -3690,49 +3715,46 @@
         <v>-0.2</v>
       </c>
       <c r="H35">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I35">
-        <v>0.25</v>
-      </c>
-      <c r="J35" s="8">
-        <v>14</v>
-      </c>
-      <c r="K35" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L35" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M35" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" ref="N35" si="8">M35-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>3</v>
+      </c>
+      <c r="M35" s="6">
+        <v>9</v>
+      </c>
+      <c r="N35" s="10">
+        <v>17</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P35" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>5</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -3747,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>680000</v>
       </c>
@@ -3770,49 +3792,46 @@
         <v>-0.2</v>
       </c>
       <c r="H36">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I36">
-        <v>0.25</v>
-      </c>
-      <c r="J36" s="8">
-        <v>14</v>
-      </c>
-      <c r="K36" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M36" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N36" s="17">
-        <f t="shared" ref="N36" si="9">M36-3</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>3</v>
+      </c>
+      <c r="M36" s="6">
+        <v>9</v>
+      </c>
+      <c r="N36" s="10">
+        <v>17</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P36" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>5</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="3">
         <v>0</v>
@@ -3827,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>700000</v>
       </c>
@@ -3849,51 +3868,45 @@
       <c r="G37" s="1">
         <v>-0.2</v>
       </c>
-      <c r="H37" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J37" s="9">
-        <v>15</v>
-      </c>
-      <c r="K37" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L37" s="15">
-        <f t="shared" si="0"/>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>0.3</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
         <v>9</v>
       </c>
-      <c r="M37" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N37" s="17">
-        <f t="shared" ref="N37" si="10">M37-3</f>
-        <v>3</v>
-      </c>
-      <c r="O37" s="1">
-        <v>2</v>
+      <c r="N37" s="10">
+        <v>17</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
       </c>
       <c r="P37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q37">
         <v>4</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S37" s="1">
-        <f>R37-1</f>
-        <v>1</v>
+      <c r="R37" s="10">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" s="3">
         <v>0</v>
@@ -3907,8 +3920,15 @@
       <c r="X37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AV37"/>
+      <c r="BQ37"/>
+      <c r="CL37"/>
+      <c r="DG37"/>
+      <c r="EB37"/>
+    </row>
+    <row r="38" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>720000</v>
       </c>
@@ -3931,51 +3951,44 @@
         <v>-0.2</v>
       </c>
       <c r="H38">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
-        <v>0.25</v>
-      </c>
-      <c r="J38" s="9">
-        <v>15</v>
-      </c>
-      <c r="K38" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L38" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M38" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N38" s="17">
-        <f t="shared" ref="N38" si="11">M38-3</f>
-        <v>3</v>
-      </c>
-      <c r="O38" s="18">
-        <f>N38-1</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>6</v>
+      </c>
+      <c r="N38" s="10">
+        <v>17</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
       </c>
       <c r="P38" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q38">
         <v>4</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R38" s="10">
+        <v>5</v>
       </c>
       <c r="S38">
         <f>R38-1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" s="3">
         <v>0</v>
@@ -3990,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>740000</v>
       </c>
@@ -4013,51 +4026,44 @@
         <v>-0.24</v>
       </c>
       <c r="H39">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
-        <v>0.15</v>
-      </c>
-      <c r="J39" s="9">
-        <v>15</v>
-      </c>
-      <c r="K39" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L39" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M39" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N39" s="17">
-        <f t="shared" ref="N39" si="12">M39-3</f>
-        <v>3</v>
-      </c>
-      <c r="O39" s="18">
-        <f t="shared" ref="O39:O102" si="13">N39-1</f>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>6</v>
+      </c>
+      <c r="N39" s="10">
+        <v>17</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
       </c>
       <c r="P39" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q39">
         <v>4</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R39" s="10">
+        <v>5</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" s="3">
         <v>0</v>
@@ -4072,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>760000</v>
       </c>
@@ -4095,51 +4101,44 @@
         <v>-0.24</v>
       </c>
       <c r="H40">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
-        <v>0.15</v>
-      </c>
-      <c r="J40" s="9">
-        <v>15</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L40" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M40" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N40" s="17">
-        <f t="shared" ref="N40" si="14">M40-3</f>
-        <v>3</v>
-      </c>
-      <c r="O40" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
+        <v>6</v>
+      </c>
+      <c r="N40" s="10">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
       </c>
       <c r="P40" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q40">
         <v>4</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R40" s="10">
+        <v>5</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U40" s="3">
         <v>0</v>
@@ -4154,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>780000</v>
       </c>
@@ -4177,51 +4176,45 @@
         <v>-0.24</v>
       </c>
       <c r="H41">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
-        <v>0.15</v>
-      </c>
-      <c r="J41" s="9">
-        <v>15</v>
+        <v>0.3</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L41" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M41" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N41" s="17">
-        <f t="shared" ref="N41" si="15">M41-3</f>
-        <v>3</v>
-      </c>
-      <c r="O41" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>J41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="6">
+        <v>6</v>
+      </c>
+      <c r="N41" s="10">
+        <v>17</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
       </c>
       <c r="P41" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q41">
         <v>4</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R41" s="10">
+        <v>5</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -4236,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>800000</v>
       </c>
@@ -4259,51 +4252,45 @@
         <v>-0.24</v>
       </c>
       <c r="H42">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
-        <v>0.15</v>
-      </c>
-      <c r="J42" s="9">
-        <v>15</v>
-      </c>
-      <c r="K42" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L42" s="15">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
+        <v>6</v>
+      </c>
+      <c r="N42" s="7">
         <v>9</v>
       </c>
-      <c r="M42" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N42" s="17">
-        <f t="shared" ref="N42" si="16">M42-3</f>
-        <v>3</v>
-      </c>
-      <c r="O42" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+      <c r="O42">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q42">
         <v>4</v>
       </c>
-      <c r="Q42">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R42" s="10">
+        <v>5</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -4318,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>820000</v>
       </c>
@@ -4341,51 +4328,45 @@
         <v>-0.24</v>
       </c>
       <c r="H43">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I43">
-        <v>0.15</v>
-      </c>
-      <c r="J43" s="9">
-        <v>15</v>
-      </c>
-      <c r="K43" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L43" s="15">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="6">
+        <v>3</v>
+      </c>
+      <c r="N43" s="7">
         <v>9</v>
       </c>
-      <c r="M43" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N43" s="17">
-        <f t="shared" ref="N43" si="17">M43-3</f>
-        <v>3</v>
-      </c>
-      <c r="O43" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+      <c r="O43">
+        <v>5</v>
       </c>
       <c r="P43" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q43">
         <v>4</v>
       </c>
-      <c r="Q43">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R43" s="10">
+        <v>5</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -4400,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>840000</v>
       </c>
@@ -4423,51 +4404,45 @@
         <v>-0.24</v>
       </c>
       <c r="H44">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I44">
-        <v>0.15</v>
-      </c>
-      <c r="J44" s="9">
-        <v>15</v>
-      </c>
-      <c r="K44" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L44" s="15">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="6">
+        <v>3</v>
+      </c>
+      <c r="N44" s="7">
         <v>9</v>
       </c>
-      <c r="M44" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N44" s="17">
-        <f t="shared" ref="N44" si="18">M44-3</f>
-        <v>3</v>
-      </c>
-      <c r="O44" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+      <c r="O44">
+        <v>5</v>
       </c>
       <c r="P44" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q44">
         <v>4</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R44" s="10">
+        <v>5</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -4482,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>860000</v>
       </c>
@@ -4505,51 +4480,45 @@
         <v>-0.24</v>
       </c>
       <c r="H45">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="I45">
-        <v>0.15</v>
-      </c>
-      <c r="J45" s="9">
-        <v>15</v>
-      </c>
-      <c r="K45" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L45" s="15">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="12">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>3</v>
+      </c>
+      <c r="N45" s="7">
         <v>9</v>
       </c>
-      <c r="M45" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N45" s="17">
-        <f t="shared" ref="N45" si="19">M45-3</f>
-        <v>3</v>
-      </c>
-      <c r="O45" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+      <c r="O45">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q45">
         <v>4</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R45" s="10">
+        <v>5</v>
       </c>
       <c r="S45">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -4564,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>880000</v>
       </c>
@@ -4587,51 +4556,45 @@
         <v>-0.24</v>
       </c>
       <c r="H46">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
-        <v>0.15</v>
-      </c>
-      <c r="J46" s="9">
-        <v>15</v>
-      </c>
-      <c r="K46" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L46" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M46" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N46" s="17">
-        <f t="shared" ref="N46" si="20">M46-3</f>
-        <v>3</v>
-      </c>
-      <c r="O46" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>3</v>
+      </c>
+      <c r="N46" s="7">
+        <v>6</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
       </c>
       <c r="P46" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q46">
         <v>4</v>
       </c>
-      <c r="Q46">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R46" s="10">
+        <v>5</v>
       </c>
       <c r="S46">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -4646,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>900000</v>
       </c>
@@ -4668,68 +4631,67 @@
       <c r="G47" s="1">
         <v>-0.24</v>
       </c>
-      <c r="H47" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J47" s="10">
-        <v>16</v>
-      </c>
-      <c r="K47" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L47" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M47" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N47" s="17">
-        <f t="shared" ref="N47" si="21">M47-3</f>
-        <v>4</v>
-      </c>
-      <c r="O47" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>0.3</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>3</v>
+      </c>
+      <c r="N47" s="7">
+        <v>6</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T47" s="1">
-        <f>S47-1</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="R47" s="10">
+        <v>5</v>
+      </c>
+      <c r="S47" s="10">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
       </c>
       <c r="U47" s="2">
         <v>1</v>
       </c>
       <c r="V47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AV47"/>
+      <c r="BQ47"/>
+      <c r="CL47"/>
+      <c r="DG47"/>
+      <c r="EB47"/>
+    </row>
+    <row r="48" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>920000</v>
       </c>
@@ -4752,67 +4714,59 @@
         <v>-0.24</v>
       </c>
       <c r="H48">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="I48">
-        <v>0.15</v>
-      </c>
-      <c r="J48" s="10">
-        <v>16</v>
-      </c>
-      <c r="K48" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L48" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M48" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N48" s="17">
-        <f t="shared" ref="N48" si="22">M48-3</f>
-        <v>4</v>
-      </c>
-      <c r="O48" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0.3</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>3</v>
+      </c>
+      <c r="N48" s="7">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
       </c>
       <c r="P48" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="R48" s="10">
+        <v>5</v>
+      </c>
+      <c r="S48" s="10">
+        <v>5</v>
       </c>
       <c r="T48">
-        <f>S48-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" s="2">
         <v>1</v>
       </c>
       <c r="V48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>940000</v>
       </c>
@@ -4835,67 +4789,59 @@
         <v>-0.24</v>
       </c>
       <c r="H49">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="I49">
-        <v>0.15</v>
-      </c>
-      <c r="J49" s="10">
-        <v>16</v>
-      </c>
-      <c r="K49" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L49" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M49" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N49" s="17">
-        <f t="shared" ref="N49" si="23">M49-3</f>
-        <v>4</v>
-      </c>
-      <c r="O49" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0.3</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>2</v>
+      </c>
+      <c r="N49" s="7">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="R49" s="10">
+        <v>5</v>
+      </c>
+      <c r="S49" s="10">
+        <v>5</v>
       </c>
       <c r="T49">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" s="2">
         <v>1</v>
       </c>
       <c r="V49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>960000</v>
       </c>
@@ -4918,67 +4864,59 @@
         <v>-0.24</v>
       </c>
       <c r="H50">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="I50">
-        <v>0.15</v>
-      </c>
-      <c r="J50" s="10">
-        <v>16</v>
-      </c>
-      <c r="K50" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L50" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M50" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N50" s="17">
-        <f t="shared" ref="N50" si="24">M50-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>2</v>
+      </c>
+      <c r="N50" s="7">
+        <v>6</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
         <v>4</v>
       </c>
-      <c r="O50" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P50" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S50" s="10">
+        <v>5</v>
       </c>
       <c r="T50">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" s="2">
         <v>1</v>
       </c>
       <c r="V50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>980000</v>
       </c>
@@ -5001,67 +4939,59 @@
         <v>-0.24</v>
       </c>
       <c r="H51">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
-        <v>0.15</v>
-      </c>
-      <c r="J51" s="10">
-        <v>16</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L51" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M51" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N51" s="17">
-        <f t="shared" ref="N51" si="25">M51-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>2</v>
+      </c>
+      <c r="N51" s="7">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
         <v>4</v>
       </c>
-      <c r="O51" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P51" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S51" s="10">
+        <v>5</v>
       </c>
       <c r="T51">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" s="2">
         <v>1</v>
       </c>
       <c r="V51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1000000</v>
       </c>
@@ -5084,67 +5014,59 @@
         <v>-0.24</v>
       </c>
       <c r="H52">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I52">
-        <v>0.15</v>
-      </c>
-      <c r="J52" s="10">
-        <v>16</v>
-      </c>
-      <c r="K52" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L52" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M52" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N52" s="17">
-        <f t="shared" ref="N52" si="26">M52-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>2</v>
+      </c>
+      <c r="N52" s="7">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
         <v>4</v>
       </c>
-      <c r="O52" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S52" s="10">
+        <v>5</v>
       </c>
       <c r="T52">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" s="2">
         <v>1</v>
       </c>
       <c r="V52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1020000</v>
       </c>
@@ -5167,67 +5089,59 @@
         <v>-0.24</v>
       </c>
       <c r="H53">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I53">
-        <v>0.15</v>
-      </c>
-      <c r="J53" s="10">
-        <v>16</v>
-      </c>
-      <c r="K53" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L53" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M53" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N53" s="17">
-        <f t="shared" ref="N53" si="27">M53-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>2</v>
+      </c>
+      <c r="N53" s="7">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
         <v>4</v>
       </c>
-      <c r="O53" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P53" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S53" s="10">
+        <v>5</v>
       </c>
       <c r="T53">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" s="2">
         <v>1</v>
       </c>
       <c r="V53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1040000</v>
       </c>
@@ -5250,67 +5164,59 @@
         <v>-0.24</v>
       </c>
       <c r="H54">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>0.15</v>
-      </c>
-      <c r="J54" s="10">
-        <v>16</v>
-      </c>
-      <c r="K54" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L54" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M54" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N54" s="17">
-        <f t="shared" ref="N54" si="28">M54-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>2</v>
+      </c>
+      <c r="N54" s="7">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
         <v>4</v>
       </c>
-      <c r="O54" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S54" s="10">
+        <v>5</v>
       </c>
       <c r="T54">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54" s="2">
         <v>1</v>
       </c>
       <c r="V54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1060000</v>
       </c>
@@ -5333,67 +5239,59 @@
         <v>-0.24</v>
       </c>
       <c r="H55">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I55">
-        <v>0.15</v>
-      </c>
-      <c r="J55" s="10">
-        <v>16</v>
-      </c>
-      <c r="K55" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L55" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M55" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N55" s="17">
-        <f t="shared" ref="N55" si="29">M55-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>2</v>
+      </c>
+      <c r="N55" s="7">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
         <v>4</v>
       </c>
-      <c r="O55" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P55" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S55" s="10">
+        <v>5</v>
       </c>
       <c r="T55">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" s="2">
         <v>1</v>
       </c>
       <c r="V55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1080000</v>
       </c>
@@ -5416,67 +5314,59 @@
         <v>-0.24</v>
       </c>
       <c r="H56">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
-        <v>0.15</v>
-      </c>
-      <c r="J56" s="10">
-        <v>16</v>
-      </c>
-      <c r="K56" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L56" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M56" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N56" s="17">
-        <f t="shared" ref="N56" si="30">M56-3</f>
+        <v>0.3</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>2</v>
+      </c>
+      <c r="N56" s="7">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
         <v>4</v>
       </c>
-      <c r="O56" s="18">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P56" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S56" s="10">
+        <v>5</v>
       </c>
       <c r="T56">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56" s="2">
         <v>1</v>
       </c>
       <c r="V56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1100000</v>
       </c>
@@ -5498,53 +5388,45 @@
       <c r="G57" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="H57" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J57" s="4">
-        <v>17</v>
-      </c>
-      <c r="K57" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L57" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M57" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N57" s="17">
-        <f t="shared" ref="N57" si="31">M57-3</f>
-        <v>5</v>
-      </c>
-      <c r="O57" s="18">
-        <f t="shared" si="13"/>
+      <c r="H57">
+        <v>0.18</v>
+      </c>
+      <c r="I57">
+        <v>0.3</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>2</v>
+      </c>
+      <c r="N57" s="7">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S57" s="11">
+        <v>6</v>
       </c>
       <c r="T57">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" s="2">
         <v>1</v>
@@ -5553,13 +5435,20 @@
         <v>0</v>
       </c>
       <c r="W57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AV57"/>
+      <c r="BQ57"/>
+      <c r="CL57"/>
+      <c r="DG57"/>
+      <c r="EB57"/>
+    </row>
+    <row r="58" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1120000</v>
       </c>
@@ -5582,52 +5471,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H58">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I58">
-        <v>0.15</v>
-      </c>
-      <c r="J58" s="4">
-        <v>17</v>
-      </c>
-      <c r="K58" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L58" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M58" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N58" s="17">
-        <f t="shared" ref="N58" si="32">M58-3</f>
-        <v>5</v>
-      </c>
-      <c r="O58" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>2</v>
+      </c>
+      <c r="N58" s="7">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S58" s="11">
+        <v>6</v>
       </c>
       <c r="T58">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U58" s="2">
         <v>1</v>
@@ -5636,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1140000</v>
       </c>
@@ -5665,52 +5546,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H59">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I59">
-        <v>0.15</v>
-      </c>
-      <c r="J59" s="4">
-        <v>17</v>
-      </c>
-      <c r="K59" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L59" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M59" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N59" s="17">
-        <f t="shared" ref="N59" si="33">M59-3</f>
-        <v>5</v>
-      </c>
-      <c r="O59" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>2</v>
+      </c>
+      <c r="N59" s="7">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S59" s="11">
+        <v>6</v>
       </c>
       <c r="T59">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U59" s="2">
         <v>1</v>
@@ -5719,13 +5592,13 @@
         <v>0</v>
       </c>
       <c r="W59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1160000</v>
       </c>
@@ -5748,52 +5621,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H60">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I60">
-        <v>0.15</v>
-      </c>
-      <c r="J60" s="4">
-        <v>17</v>
-      </c>
-      <c r="K60" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L60" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M60" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N60" s="17">
-        <f t="shared" ref="N60" si="34">M60-3</f>
-        <v>5</v>
-      </c>
-      <c r="O60" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <f>J60</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>2</v>
+      </c>
+      <c r="N60" s="7">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S60" s="11">
+        <v>6</v>
       </c>
       <c r="T60">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" s="2">
         <v>1</v>
@@ -5802,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1180000</v>
       </c>
@@ -5831,52 +5696,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H61">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I61">
-        <v>0.1</v>
-      </c>
-      <c r="J61" s="4">
-        <v>17</v>
-      </c>
-      <c r="K61" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L61" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M61" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N61" s="17">
-        <f t="shared" ref="N61" si="35">M61-3</f>
-        <v>5</v>
-      </c>
-      <c r="O61" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>2</v>
+      </c>
+      <c r="N61" s="7">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
         <v>4</v>
       </c>
-      <c r="P61" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S61" s="11">
+        <v>6</v>
       </c>
       <c r="T61">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U61" s="2">
         <v>1</v>
@@ -5885,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="W61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1200000</v>
       </c>
@@ -5914,52 +5771,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H62">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I62">
-        <v>0.1</v>
-      </c>
-      <c r="J62" s="4">
-        <v>17</v>
-      </c>
-      <c r="K62" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L62" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M62" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N62" s="17">
-        <f t="shared" ref="N62" si="36">M62-3</f>
-        <v>5</v>
-      </c>
-      <c r="O62" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>2</v>
+      </c>
+      <c r="N62" s="7">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S62" s="11">
+        <v>6</v>
       </c>
       <c r="T62">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U62" s="2">
         <v>1</v>
@@ -5968,13 +5817,13 @@
         <v>0</v>
       </c>
       <c r="W62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1220000</v>
       </c>
@@ -5997,52 +5846,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H63">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I63">
-        <v>0.1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>17</v>
-      </c>
-      <c r="K63" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L63" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M63" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N63" s="17">
-        <f t="shared" ref="N63" si="37">M63-3</f>
-        <v>5</v>
-      </c>
-      <c r="O63" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>2</v>
+      </c>
+      <c r="N63" s="7">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
         <v>4</v>
       </c>
-      <c r="P63" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S63" s="11">
+        <v>6</v>
       </c>
       <c r="T63">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" s="2">
         <v>1</v>
@@ -6051,13 +5892,13 @@
         <v>0</v>
       </c>
       <c r="W63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1240000</v>
       </c>
@@ -6080,52 +5921,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H64">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I64">
-        <v>0.1</v>
-      </c>
-      <c r="J64" s="4">
-        <v>17</v>
-      </c>
-      <c r="K64" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L64" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M64" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N64" s="17">
-        <f t="shared" ref="N64" si="38">M64-3</f>
-        <v>5</v>
-      </c>
-      <c r="O64" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>2</v>
+      </c>
+      <c r="N64" s="7">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
         <v>4</v>
       </c>
-      <c r="P64" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S64" s="11">
+        <v>6</v>
       </c>
       <c r="T64">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U64" s="2">
         <v>1</v>
@@ -6134,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="W64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1260000</v>
       </c>
@@ -6163,52 +5996,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H65">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I65">
-        <v>0.1</v>
-      </c>
-      <c r="J65" s="4">
-        <v>17</v>
-      </c>
-      <c r="K65" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L65" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M65" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N65" s="17">
-        <f t="shared" ref="N65" si="39">M65-3</f>
-        <v>5</v>
-      </c>
-      <c r="O65" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>2</v>
+      </c>
+      <c r="N65" s="7">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
         <v>4</v>
       </c>
-      <c r="P65" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S65" s="11">
+        <v>6</v>
       </c>
       <c r="T65">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65" s="2">
         <v>1</v>
@@ -6217,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="W65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1280000</v>
       </c>
@@ -6246,52 +6071,44 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H66">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I66">
-        <v>0.1</v>
-      </c>
-      <c r="J66" s="4">
-        <v>17</v>
-      </c>
-      <c r="K66" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L66" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M66" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N66" s="17">
-        <f t="shared" ref="N66" si="40">M66-3</f>
-        <v>5</v>
-      </c>
-      <c r="O66" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>2</v>
+      </c>
+      <c r="N66" s="7">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="S66" s="11">
+        <v>6</v>
       </c>
       <c r="T66">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U66" s="2">
         <v>1</v>
@@ -6300,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="W66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1300000</v>
       </c>
@@ -6328,68 +6145,67 @@
       <c r="G67" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="H67" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J67" s="11">
-        <v>18</v>
-      </c>
-      <c r="K67" s="12">
-        <f t="shared" ref="K67:N102" si="41">J67-3</f>
-        <v>15</v>
-      </c>
-      <c r="L67" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M67" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N67" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O67" s="18">
-        <f t="shared" si="13"/>
+      <c r="H67">
+        <v>0.16</v>
+      </c>
+      <c r="I67">
+        <v>0.3</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>2</v>
+      </c>
+      <c r="N67" s="7">
+        <v>3</v>
+      </c>
+      <c r="O67">
         <v>5</v>
       </c>
       <c r="P67" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S67" s="10">
+        <v>7</v>
       </c>
       <c r="T67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U67" s="2">
         <v>1</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AV67"/>
+      <c r="BQ67"/>
+      <c r="CL67"/>
+      <c r="DG67"/>
+      <c r="EB67"/>
+    </row>
+    <row r="68" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1320000</v>
       </c>
@@ -6412,67 +6228,59 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H68">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I68">
-        <v>0.1</v>
-      </c>
-      <c r="J68" s="11">
-        <v>18</v>
-      </c>
-      <c r="K68" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L68" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M68" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N68" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O68" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>2</v>
+      </c>
+      <c r="N68" s="7">
+        <v>3</v>
+      </c>
+      <c r="O68">
         <v>5</v>
       </c>
       <c r="P68" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S68" s="10">
+        <v>7</v>
       </c>
       <c r="T68">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U68" s="2">
         <v>1</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1340000</v>
       </c>
@@ -6495,67 +6303,59 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H69">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I69">
-        <v>0.1</v>
-      </c>
-      <c r="J69" s="11">
-        <v>18</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L69" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N69" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O69" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>2</v>
+      </c>
+      <c r="N69" s="7">
+        <v>3</v>
+      </c>
+      <c r="O69">
         <v>5</v>
       </c>
       <c r="P69" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R69">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S69" s="10">
+        <v>7</v>
       </c>
       <c r="T69">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U69" s="2">
         <v>1</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1360000</v>
       </c>
@@ -6578,67 +6378,59 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H70">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I70">
-        <v>0.1</v>
-      </c>
-      <c r="J70" s="11">
-        <v>18</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L70" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N70" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O70" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>2</v>
+      </c>
+      <c r="N70" s="7">
+        <v>3</v>
+      </c>
+      <c r="O70">
         <v>5</v>
       </c>
       <c r="P70" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S70" s="10">
+        <v>7</v>
       </c>
       <c r="T70">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U70" s="2">
         <v>1</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1380000</v>
       </c>
@@ -6661,67 +6453,59 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H71">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I71">
-        <v>0.1</v>
-      </c>
-      <c r="J71" s="11">
-        <v>18</v>
-      </c>
-      <c r="K71" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L71" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M71" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N71" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O71" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>2</v>
+      </c>
+      <c r="N71" s="7">
+        <v>3</v>
+      </c>
+      <c r="O71">
         <v>5</v>
       </c>
       <c r="P71" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S71" s="10">
+        <v>7</v>
       </c>
       <c r="T71">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U71" s="2">
         <v>1</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1400000</v>
       </c>
@@ -6744,67 +6528,59 @@
         <v>-0.31</v>
       </c>
       <c r="H72">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I72">
-        <v>0.1</v>
-      </c>
-      <c r="J72" s="11">
-        <v>18</v>
-      </c>
-      <c r="K72" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L72" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M72" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N72" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O72" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>2</v>
+      </c>
+      <c r="N72" s="7">
+        <v>3</v>
+      </c>
+      <c r="O72">
         <v>5</v>
       </c>
       <c r="P72" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R72">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S72" s="10">
+        <v>7</v>
       </c>
       <c r="T72">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U72" s="2">
         <v>1</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1420000</v>
       </c>
@@ -6827,67 +6603,59 @@
         <v>-0.31</v>
       </c>
       <c r="H73">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I73">
-        <v>0.1</v>
-      </c>
-      <c r="J73" s="11">
-        <v>18</v>
-      </c>
-      <c r="K73" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L73" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M73" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N73" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O73" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>2</v>
+      </c>
+      <c r="N73" s="7">
+        <v>3</v>
+      </c>
+      <c r="O73">
         <v>5</v>
       </c>
       <c r="P73" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S73" s="10">
+        <v>8</v>
       </c>
       <c r="T73">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U73" s="2">
         <v>1</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1440000</v>
       </c>
@@ -6910,67 +6678,59 @@
         <v>-0.31</v>
       </c>
       <c r="H74">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I74">
-        <v>0.1</v>
-      </c>
-      <c r="J74" s="11">
-        <v>18</v>
-      </c>
-      <c r="K74" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L74" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M74" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N74" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O74" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>2</v>
+      </c>
+      <c r="N74" s="7">
+        <v>3</v>
+      </c>
+      <c r="O74">
         <v>5</v>
       </c>
       <c r="P74" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S74" s="10">
+        <v>8</v>
       </c>
       <c r="T74">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U74" s="2">
         <v>1</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1460000</v>
       </c>
@@ -6993,67 +6753,59 @@
         <v>-0.31</v>
       </c>
       <c r="H75">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I75">
-        <v>0.1</v>
-      </c>
-      <c r="J75" s="11">
-        <v>18</v>
-      </c>
-      <c r="K75" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L75" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M75" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N75" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O75" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>2</v>
+      </c>
+      <c r="N75" s="7">
+        <v>3</v>
+      </c>
+      <c r="O75">
         <v>5</v>
       </c>
       <c r="P75" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S75" s="10">
+        <v>8</v>
       </c>
       <c r="T75">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U75" s="2">
         <v>1</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1480000</v>
       </c>
@@ -7076,67 +6828,59 @@
         <v>-0.31</v>
       </c>
       <c r="H76">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I76">
-        <v>0.1</v>
-      </c>
-      <c r="J76" s="11">
-        <v>18</v>
-      </c>
-      <c r="K76" s="12">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="L76" s="15">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="M76" s="16">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="N76" s="17">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="O76" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>2</v>
+      </c>
+      <c r="N76" s="7">
+        <v>3</v>
+      </c>
+      <c r="O76">
         <v>5</v>
       </c>
       <c r="P76" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R76">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S76" s="10">
+        <v>8</v>
       </c>
       <c r="T76">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U76" s="2">
         <v>1</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1500000</v>
       </c>
@@ -7158,53 +6902,45 @@
       <c r="G77" s="1">
         <v>-0.31</v>
       </c>
-      <c r="H77" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J77" s="2">
-        <v>19</v>
-      </c>
-      <c r="K77" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L77" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N77" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O77" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+      <c r="H77">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I77">
+        <v>0.3</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="6">
+        <v>2</v>
+      </c>
+      <c r="N77" s="7">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
       </c>
       <c r="P77" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S77" s="10">
+        <v>8</v>
       </c>
       <c r="T77">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U77" s="3">
         <v>0</v>
@@ -7213,13 +6949,20 @@
         <v>1</v>
       </c>
       <c r="W77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AV77"/>
+      <c r="BQ77"/>
+      <c r="CL77"/>
+      <c r="DG77"/>
+      <c r="EB77"/>
+    </row>
+    <row r="78" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1520000</v>
       </c>
@@ -7242,52 +6985,44 @@
         <v>-0.31</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I78">
-        <v>0.1</v>
-      </c>
-      <c r="J78" s="2">
-        <v>19</v>
-      </c>
-      <c r="K78" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L78" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M78" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N78" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O78" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6">
+        <v>2</v>
+      </c>
+      <c r="N78" s="7">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>5</v>
       </c>
       <c r="P78" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S78" s="10">
+        <v>8</v>
       </c>
       <c r="T78">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U78" s="3">
         <v>0</v>
@@ -7296,13 +7031,13 @@
         <v>1</v>
       </c>
       <c r="W78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1540000</v>
       </c>
@@ -7325,52 +7060,44 @@
         <v>-0.31</v>
       </c>
       <c r="H79">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I79">
-        <v>0.1</v>
-      </c>
-      <c r="J79" s="2">
-        <v>19</v>
-      </c>
-      <c r="K79" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L79" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M79" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N79" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O79" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="6">
+        <v>2</v>
+      </c>
+      <c r="N79" s="7">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
       </c>
       <c r="P79" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S79" s="10">
+        <v>8</v>
       </c>
       <c r="T79">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U79" s="3">
         <v>0</v>
@@ -7379,13 +7106,13 @@
         <v>1</v>
       </c>
       <c r="W79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1560000</v>
       </c>
@@ -7408,52 +7135,44 @@
         <v>-0.31</v>
       </c>
       <c r="H80">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I80">
-        <v>0.1</v>
-      </c>
-      <c r="J80" s="2">
-        <v>19</v>
-      </c>
-      <c r="K80" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L80" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M80" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N80" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O80" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" ref="K80" si="14">J80</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="6">
+        <v>2</v>
+      </c>
+      <c r="N80" s="7">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
       </c>
       <c r="P80" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S80" s="10">
+        <v>9</v>
       </c>
       <c r="T80">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U80" s="3">
         <v>0</v>
@@ -7462,13 +7181,13 @@
         <v>1</v>
       </c>
       <c r="W80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1580000</v>
       </c>
@@ -7491,52 +7210,44 @@
         <v>-0.31</v>
       </c>
       <c r="H81">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I81">
-        <v>0.1</v>
-      </c>
-      <c r="J81" s="2">
-        <v>19</v>
-      </c>
-      <c r="K81" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L81" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M81" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N81" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O81" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>J81</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0</v>
+      </c>
+      <c r="M81" s="6">
+        <v>2</v>
+      </c>
+      <c r="N81" s="7">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
       </c>
       <c r="P81" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S81" s="10">
+        <v>9</v>
       </c>
       <c r="T81">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -7545,13 +7256,13 @@
         <v>1</v>
       </c>
       <c r="W81" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1600000</v>
       </c>
@@ -7574,52 +7285,44 @@
         <v>-0.31</v>
       </c>
       <c r="H82">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2">
-        <v>19</v>
-      </c>
-      <c r="K82" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L82" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M82" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N82" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O82" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" ref="K82:K102" si="15">J82</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0</v>
+      </c>
+      <c r="M82" s="6">
+        <v>2</v>
+      </c>
+      <c r="N82" s="7">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>5</v>
       </c>
       <c r="P82" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S82" s="10">
+        <v>9</v>
       </c>
       <c r="T82">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U82" s="3">
         <v>0</v>
@@ -7628,13 +7331,13 @@
         <v>1</v>
       </c>
       <c r="W82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1620000</v>
       </c>
@@ -7657,52 +7360,44 @@
         <v>-0.31</v>
       </c>
       <c r="H83">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2">
-        <v>19</v>
-      </c>
-      <c r="K83" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L83" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M83" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N83" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O83" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0</v>
+      </c>
+      <c r="M83" s="6">
+        <v>2</v>
+      </c>
+      <c r="N83" s="7">
+        <v>3</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" ref="Q83:T102" si="42">P83-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S83" s="10">
+        <v>9</v>
       </c>
       <c r="T83">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -7711,13 +7406,13 @@
         <v>1</v>
       </c>
       <c r="W83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1640000</v>
       </c>
@@ -7740,52 +7435,44 @@
         <v>-0.31</v>
       </c>
       <c r="H84">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2">
-        <v>19</v>
-      </c>
-      <c r="K84" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L84" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M84" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N84" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O84" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+      <c r="M84" s="6">
+        <v>2</v>
+      </c>
+      <c r="N84" s="7">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
       </c>
       <c r="P84" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S84" s="10">
+        <v>9</v>
       </c>
       <c r="T84">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U84" s="3">
         <v>0</v>
@@ -7794,13 +7481,13 @@
         <v>1</v>
       </c>
       <c r="W84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1660000</v>
       </c>
@@ -7823,52 +7510,44 @@
         <v>-0.31</v>
       </c>
       <c r="H85">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2">
-        <v>19</v>
-      </c>
-      <c r="K85" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L85" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M85" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N85" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O85" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>2</v>
+      </c>
+      <c r="N85" s="7">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>5</v>
       </c>
       <c r="P85" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S85" s="10">
+        <v>9</v>
       </c>
       <c r="T85">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85" s="3">
         <v>0</v>
@@ -7877,13 +7556,13 @@
         <v>1</v>
       </c>
       <c r="W85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1680000</v>
       </c>
@@ -7906,52 +7585,44 @@
         <v>-0.31</v>
       </c>
       <c r="H86">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2">
-        <v>19</v>
-      </c>
-      <c r="K86" s="12">
-        <f t="shared" si="41"/>
-        <v>16</v>
-      </c>
-      <c r="L86" s="15">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="M86" s="16">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="N86" s="17">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="O86" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="6">
+        <v>2</v>
+      </c>
+      <c r="N86" s="7">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>5</v>
       </c>
       <c r="P86" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S86" s="10">
+        <v>9</v>
       </c>
       <c r="T86">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U86" s="3">
         <v>0</v>
@@ -7960,13 +7631,13 @@
         <v>1</v>
       </c>
       <c r="W86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1700000</v>
       </c>
@@ -7988,53 +7659,45 @@
       <c r="G87" s="1">
         <v>-0.31</v>
       </c>
-      <c r="H87" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="13">
-        <v>20</v>
-      </c>
-      <c r="K87" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L87" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M87" s="16">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="N87" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O87" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
+      <c r="H87">
+        <v>0.12</v>
+      </c>
+      <c r="I87">
+        <v>0.3</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0</v>
+      </c>
+      <c r="M87" s="6">
+        <v>2</v>
+      </c>
+      <c r="N87" s="7">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>5</v>
       </c>
       <c r="P87" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S87" s="10">
+        <v>10</v>
       </c>
       <c r="T87">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U87" s="3">
         <v>0</v>
@@ -8043,13 +7706,20 @@
         <v>1</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AV87"/>
+      <c r="BQ87"/>
+      <c r="CL87"/>
+      <c r="DG87"/>
+      <c r="EB87"/>
+    </row>
+    <row r="88" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1720000</v>
       </c>
@@ -8072,52 +7742,44 @@
         <v>-0.31</v>
       </c>
       <c r="H88">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" s="13">
-        <v>20</v>
-      </c>
-      <c r="K88" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L88" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M88" s="16">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="N88" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O88" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0.3</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="6">
+        <v>2</v>
+      </c>
+      <c r="N88" s="7">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>5</v>
       </c>
       <c r="P88" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S88" s="10">
+        <v>10</v>
       </c>
       <c r="T88">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U88" s="3">
         <v>0</v>
@@ -8126,13 +7788,13 @@
         <v>1</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1740000</v>
       </c>
@@ -8155,52 +7817,44 @@
         <v>-0.31</v>
       </c>
       <c r="H89">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" s="13">
-        <v>20</v>
-      </c>
-      <c r="K89" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M89" s="16">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="N89" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O89" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0.3</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>2</v>
+      </c>
+      <c r="N89" s="7">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
       </c>
       <c r="P89" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S89" s="10">
+        <v>10</v>
       </c>
       <c r="T89">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -8209,13 +7863,13 @@
         <v>1</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1760000</v>
       </c>
@@ -8238,52 +7892,44 @@
         <v>-0.31</v>
       </c>
       <c r="H90">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" s="13">
-        <v>20</v>
-      </c>
-      <c r="K90" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L90" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="N90" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O90" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0.3</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
+      <c r="M90" s="6">
+        <v>2</v>
+      </c>
+      <c r="N90" s="7">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>5</v>
       </c>
       <c r="P90" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S90" s="10">
+        <v>10</v>
       </c>
       <c r="T90">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U90" s="3">
         <v>0</v>
@@ -8292,13 +7938,13 @@
         <v>1</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1780000</v>
       </c>
@@ -8321,52 +7967,44 @@
         <v>-0.31</v>
       </c>
       <c r="H91">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" s="13">
-        <v>20</v>
-      </c>
-      <c r="K91" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L91" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M91" s="16">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="N91" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O91" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0.3</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="6">
+        <v>2</v>
+      </c>
+      <c r="N91" s="7">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S91" s="10">
+        <v>10</v>
       </c>
       <c r="T91">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -8375,13 +8013,13 @@
         <v>1</v>
       </c>
       <c r="W91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1800000</v>
       </c>
@@ -8404,52 +8042,44 @@
         <v>-0.37</v>
       </c>
       <c r="H92">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" s="13">
-        <v>20</v>
-      </c>
-      <c r="K92" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L92" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M92" s="16">
-        <f t="shared" si="41"/>
-        <v>11</v>
-      </c>
-      <c r="N92" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O92" s="18">
-        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="6">
+        <v>2</v>
+      </c>
+      <c r="N92" s="7">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>5</v>
+      </c>
+      <c r="P92" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
         <v>7</v>
       </c>
-      <c r="P92" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q92">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R92">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="42"/>
-        <v>2</v>
+      <c r="S92" s="10">
+        <v>10</v>
       </c>
       <c r="T92">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" s="3">
         <v>0</v>
@@ -8458,13 +8088,13 @@
         <v>1</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1820000</v>
       </c>
@@ -8487,52 +8117,44 @@
         <v>-0.37</v>
       </c>
       <c r="H93">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" s="13">
-        <v>20</v>
-      </c>
-      <c r="K93" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L93" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M93" s="16">
-        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <v>2</v>
+      </c>
+      <c r="N93" s="7">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>7</v>
+      </c>
+      <c r="S93" s="10">
         <v>11</v>
       </c>
-      <c r="N93" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O93" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="P93" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q93">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R93">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
       <c r="T93">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U93" s="3">
         <v>0</v>
@@ -8541,13 +8163,13 @@
         <v>1</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1840000</v>
       </c>
@@ -8570,52 +8192,44 @@
         <v>-0.37</v>
       </c>
       <c r="H94">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" s="13">
-        <v>20</v>
-      </c>
-      <c r="K94" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L94" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M94" s="16">
-        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="6">
+        <v>2</v>
+      </c>
+      <c r="N94" s="7">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>7</v>
+      </c>
+      <c r="S94" s="10">
         <v>11</v>
       </c>
-      <c r="N94" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O94" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="P94" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q94">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
       <c r="T94">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -8624,13 +8238,13 @@
         <v>1</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1860000</v>
       </c>
@@ -8653,52 +8267,44 @@
         <v>-0.37</v>
       </c>
       <c r="H95">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="13">
-        <v>20</v>
-      </c>
-      <c r="K95" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L95" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M95" s="16">
-        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
+      <c r="M95" s="6">
+        <v>2</v>
+      </c>
+      <c r="N95" s="7">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>5</v>
+      </c>
+      <c r="P95" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>7</v>
+      </c>
+      <c r="S95" s="10">
         <v>11</v>
       </c>
-      <c r="N95" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O95" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="P95" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q95">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R95">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S95">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
       <c r="T95">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U95" s="3">
         <v>0</v>
@@ -8707,13 +8313,13 @@
         <v>1</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1880000</v>
       </c>
@@ -8736,52 +8342,44 @@
         <v>-0.37</v>
       </c>
       <c r="H96">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" s="13">
-        <v>20</v>
-      </c>
-      <c r="K96" s="12">
-        <f t="shared" si="41"/>
-        <v>17</v>
-      </c>
-      <c r="L96" s="15">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="M96" s="16">
-        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="6">
+        <v>2</v>
+      </c>
+      <c r="N96" s="7">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>7</v>
+      </c>
+      <c r="S96" s="10">
         <v>11</v>
       </c>
-      <c r="N96" s="17">
-        <f t="shared" si="41"/>
-        <v>8</v>
-      </c>
-      <c r="O96" s="18">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="P96" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q96">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R96">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
       <c r="T96">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
@@ -8790,13 +8388,13 @@
         <v>1</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1900000</v>
       </c>
@@ -8818,68 +8416,67 @@
       <c r="G97" s="1">
         <v>-0.37</v>
       </c>
-      <c r="H97" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="14">
-        <v>21</v>
-      </c>
-      <c r="K97" s="12">
-        <f t="shared" si="41"/>
-        <v>18</v>
-      </c>
-      <c r="L97" s="15">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="M97" s="16">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="N97" s="17">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="O97" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
+      <c r="H97">
+        <v>0.1</v>
+      </c>
+      <c r="I97">
+        <v>0.3</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>2</v>
+      </c>
+      <c r="N97" s="7">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>5</v>
       </c>
       <c r="P97" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R97">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="S97" s="10">
+        <v>11</v>
       </c>
       <c r="T97">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U97" s="3">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AV97"/>
+      <c r="BQ97"/>
+      <c r="CL97"/>
+      <c r="DG97"/>
+      <c r="EB97"/>
+    </row>
+    <row r="98" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1920000</v>
       </c>
@@ -8902,67 +8499,59 @@
         <v>-0.37</v>
       </c>
       <c r="H98">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" s="14">
-        <v>21</v>
-      </c>
-      <c r="K98" s="12">
-        <f t="shared" si="41"/>
-        <v>18</v>
-      </c>
-      <c r="L98" s="15">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="M98" s="16">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="N98" s="17">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="O98" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0.3</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
+      <c r="M98" s="6">
+        <v>2</v>
+      </c>
+      <c r="N98" s="7">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
       </c>
       <c r="P98" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="S98" s="10">
+        <v>11</v>
       </c>
       <c r="T98">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U98" s="3">
         <v>0</v>
       </c>
       <c r="V98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W98" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1940000</v>
       </c>
@@ -8985,67 +8574,59 @@
         <v>-0.37</v>
       </c>
       <c r="H99">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" s="14">
-        <v>21</v>
-      </c>
-      <c r="K99" s="12">
-        <f t="shared" si="41"/>
-        <v>18</v>
-      </c>
-      <c r="L99" s="15">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="M99" s="16">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="N99" s="17">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="O99" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0.3</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="6">
+        <v>2</v>
+      </c>
+      <c r="N99" s="7">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>5</v>
       </c>
       <c r="P99" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="S99" s="10">
+        <v>11</v>
       </c>
       <c r="T99">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U99" s="3">
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1960000</v>
       </c>
@@ -9068,67 +8649,59 @@
         <v>-0.37</v>
       </c>
       <c r="H100">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" s="14">
-        <v>21</v>
-      </c>
-      <c r="K100" s="12">
-        <f t="shared" si="41"/>
-        <v>18</v>
-      </c>
-      <c r="L100" s="15">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="M100" s="16">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="N100" s="17">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="O100" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0.3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0</v>
+      </c>
+      <c r="M100" s="6">
+        <v>2</v>
+      </c>
+      <c r="N100" s="7">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>5</v>
       </c>
       <c r="P100" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R100">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="S100" s="10">
+        <v>11</v>
       </c>
       <c r="T100">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1980000</v>
       </c>
@@ -9151,67 +8724,59 @@
         <v>-0.37</v>
       </c>
       <c r="H101">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" s="14">
-        <v>21</v>
-      </c>
-      <c r="K101" s="12">
-        <f t="shared" si="41"/>
-        <v>18</v>
-      </c>
-      <c r="L101" s="15">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="M101" s="16">
-        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0</v>
+      </c>
+      <c r="M101" s="6">
+        <v>2</v>
+      </c>
+      <c r="N101" s="7">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>8</v>
+      </c>
+      <c r="S101" s="10">
         <v>12</v>
       </c>
-      <c r="N101" s="17">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="O101" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q101">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
       <c r="T101">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W101" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2000000</v>
       </c>
@@ -9234,64 +8799,56 @@
         <v>-0.37</v>
       </c>
       <c r="H102">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" s="14">
-        <v>21</v>
-      </c>
-      <c r="K102" s="12">
-        <f t="shared" si="41"/>
-        <v>18</v>
-      </c>
-      <c r="L102" s="15">
-        <f t="shared" si="41"/>
-        <v>15</v>
-      </c>
-      <c r="M102" s="16">
-        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="5">
+        <v>0</v>
+      </c>
+      <c r="M102" s="6">
+        <v>2</v>
+      </c>
+      <c r="N102" s="7">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>8</v>
+      </c>
+      <c r="S102" s="10">
         <v>12</v>
       </c>
-      <c r="N102" s="17">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="O102" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="R102">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="S102">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
       <c r="T102">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">

--- a/trunk/TEMP/level.xlsx
+++ b/trunk/TEMP/level.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -643,7 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -657,6 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -985,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O102" sqref="O102"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X37" sqref="X34:X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,9 +1006,17 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
     <col min="21" max="21" width="5.42578125" style="3" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" customWidth="1"/>
     <col min="23" max="23" width="5.85546875" customWidth="1"/>
@@ -1299,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1376,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1453,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1847,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1926,8 +1941,7 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2005,17 +2019,16 @@
         <v>2</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2080,21 +2093,19 @@
         <v>3</v>
       </c>
       <c r="R14">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2160,21 +2171,20 @@
         <v>3</v>
       </c>
       <c r="R15">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2240,21 +2250,20 @@
         <v>3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="Q16:S46" si="11">R16-1</f>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2319,11 +2328,10 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <v>2</v>
@@ -2383,9 +2391,8 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="L18" s="5">
-        <f>K18+3</f>
-        <v>12</v>
+      <c r="L18" s="10">
+        <v>15</v>
       </c>
       <c r="M18" s="6">
         <v>13</v>
@@ -2405,11 +2412,10 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="Q18:T56" si="11">Q18-1</f>
         <v>3</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18">
         <v>2</v>
@@ -2462,9 +2468,8 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="L19" s="5">
-        <f t="shared" ref="L19:L32" si="12">K19+3</f>
-        <v>12</v>
+      <c r="L19" s="10">
+        <v>15</v>
       </c>
       <c r="M19" s="6">
         <v>13</v>
@@ -2488,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <v>2</v>
@@ -2541,9 +2546,8 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="L20" s="5">
-        <f t="shared" si="12"/>
-        <v>12</v>
+      <c r="L20" s="10">
+        <v>15</v>
       </c>
       <c r="M20" s="6">
         <v>13</v>
@@ -2567,8 +2571,7 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T20">
         <v>2</v>
@@ -2622,7 +2625,6 @@
         <v>9</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="M21" s="6">
@@ -2647,8 +2649,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21">
         <v>2</v>
@@ -2702,8 +2703,7 @@
         <v>6</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M22" s="6">
         <v>13</v>
@@ -2723,12 +2723,10 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22">
         <v>2</v>
@@ -2782,8 +2780,7 @@
         <v>6</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M23" s="10">
         <v>15</v>
@@ -2803,12 +2800,10 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>2</v>
@@ -2816,11 +2811,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2862,8 +2857,7 @@
         <v>6</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M24" s="10">
         <v>15</v>
@@ -2883,12 +2877,10 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -2896,11 +2888,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2942,8 +2934,7 @@
         <v>6</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M25" s="10">
         <v>15</v>
@@ -2963,12 +2954,10 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>2</v>
@@ -2976,11 +2965,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-      <c r="V25" s="2">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3022,8 +3011,7 @@
         <v>6</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M26" s="10">
         <v>15</v>
@@ -3043,12 +3031,10 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <v>2</v>
@@ -3056,11 +3042,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-      <c r="V26" s="2">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3102,8 +3088,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M27" s="10">
         <v>15</v>
@@ -3113,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P27" s="3">
         <v>4</v>
@@ -3122,11 +3107,10 @@
         <v>5</v>
       </c>
       <c r="R27">
-        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T27">
         <v>2</v>
@@ -3134,7 +3118,7 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27">
         <v>0</v>
       </c>
       <c r="W27" s="2">
@@ -3187,17 +3171,16 @@
         <v>3</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M28" s="6">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="M28" s="10">
+        <v>15</v>
       </c>
       <c r="N28" s="9">
         <v>15</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P28" s="3">
         <v>4</v>
@@ -3210,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T28">
         <v>2</v>
@@ -3264,17 +3247,16 @@
         <v>3</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M29" s="6">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="M29" s="10">
+        <v>15</v>
       </c>
       <c r="N29" s="9">
         <v>15</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P29" s="3">
         <v>4</v>
@@ -3287,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <v>2</v>
@@ -3341,17 +3323,16 @@
         <v>3</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M30" s="6">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="M30" s="10">
+        <v>15</v>
       </c>
       <c r="N30" s="9">
         <v>15</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P30" s="3">
         <v>4</v>
@@ -3364,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T30">
         <v>2</v>
@@ -3418,31 +3399,28 @@
         <v>3</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M31" s="6">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="M31" s="10">
+        <v>15</v>
       </c>
       <c r="N31" s="9">
         <v>15</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31" s="3">
         <v>4</v>
       </c>
-      <c r="Q31" s="10">
-        <v>5</v>
+      <c r="Q31">
+        <v>4</v>
       </c>
       <c r="R31">
-        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31:S37" si="13">R31-1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <v>2</v>
@@ -3496,31 +3474,28 @@
         <v>3</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="M32" s="6">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="M32" s="10">
+        <v>15</v>
       </c>
       <c r="N32" s="9">
         <v>15</v>
       </c>
       <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32" s="10">
         <v>5</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32">
         <v>4</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="13"/>
-        <v>3</v>
       </c>
       <c r="T32">
         <v>2</v>
@@ -3574,31 +3549,29 @@
         <v>1</v>
       </c>
       <c r="L33" s="5">
-        <v>3</v>
-      </c>
-      <c r="M33" s="6">
         <v>9</v>
+      </c>
+      <c r="M33" s="10">
+        <v>15</v>
       </c>
       <c r="N33" s="9">
         <v>15</v>
       </c>
       <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33" s="10">
         <v>5</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33">
         <v>4</v>
       </c>
-      <c r="Q33" s="10">
-        <v>5</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
       <c r="T33">
         <v>2</v>
       </c>
@@ -3612,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:132" x14ac:dyDescent="0.25">
@@ -3651,31 +3624,29 @@
         <v>1</v>
       </c>
       <c r="L34" s="5">
-        <v>3</v>
-      </c>
-      <c r="M34" s="6">
         <v>9</v>
       </c>
-      <c r="N34" s="10">
-        <v>17</v>
+      <c r="M34" s="10">
+        <v>15</v>
+      </c>
+      <c r="N34" s="9">
+        <v>15</v>
       </c>
       <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="P34" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34" s="10">
         <v>5</v>
       </c>
-      <c r="P34" s="3">
+      <c r="S34">
         <v>4</v>
       </c>
-      <c r="Q34" s="10">
-        <v>5</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
       <c r="T34">
         <v>2</v>
       </c>
@@ -3685,11 +3656,11 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" s="2">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:132" x14ac:dyDescent="0.25">
@@ -3728,31 +3699,29 @@
         <v>1</v>
       </c>
       <c r="L35" s="5">
-        <v>3</v>
-      </c>
-      <c r="M35" s="6">
         <v>9</v>
       </c>
-      <c r="N35" s="10">
-        <v>17</v>
+      <c r="M35" s="10">
+        <v>15</v>
+      </c>
+      <c r="N35" s="9">
+        <v>15</v>
       </c>
       <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35" s="10">
         <v>5</v>
       </c>
-      <c r="P35" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="10">
+      <c r="S35" s="10">
         <v>5</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
       <c r="T35">
         <v>2</v>
       </c>
@@ -3762,11 +3731,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" s="2">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:132" x14ac:dyDescent="0.25">
@@ -3805,31 +3774,29 @@
         <v>1</v>
       </c>
       <c r="L36" s="5">
-        <v>3</v>
-      </c>
-      <c r="M36" s="6">
         <v>9</v>
       </c>
-      <c r="N36" s="10">
-        <v>17</v>
+      <c r="M36" s="10">
+        <v>15</v>
+      </c>
+      <c r="N36" s="9">
+        <v>15</v>
       </c>
       <c r="O36">
+        <v>9</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" s="10">
         <v>5</v>
       </c>
-      <c r="P36" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="10">
+      <c r="S36" s="10">
         <v>5</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
       <c r="T36">
         <v>2</v>
       </c>
@@ -3839,11 +3806,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" s="2">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3872,7 +3839,7 @@
         <v>0.2</v>
       </c>
       <c r="I37">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J37" s="12">
         <v>0</v>
@@ -3880,33 +3847,32 @@
       <c r="K37" s="4">
         <v>1</v>
       </c>
-      <c r="L37" s="5">
-        <v>1</v>
+      <c r="L37" s="13">
+        <v>6</v>
       </c>
       <c r="M37" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N37" s="10">
         <v>17</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R37" s="10">
         <v>5</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="13"/>
-        <v>4</v>
+      <c r="S37" s="10">
+        <v>5</v>
       </c>
       <c r="T37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U37" s="3">
         <v>0</v>
@@ -3914,7 +3880,7 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" s="2">
@@ -3954,7 +3920,7 @@
         <v>0.2</v>
       </c>
       <c r="I38">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3963,32 +3929,31 @@
         <v>1</v>
       </c>
       <c r="L38" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M38" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N38" s="10">
         <v>17</v>
       </c>
       <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38" s="10">
+        <v>6</v>
+      </c>
+      <c r="T38" s="1">
         <v>5</v>
-      </c>
-      <c r="P38" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q38">
-        <v>4</v>
-      </c>
-      <c r="R38" s="10">
-        <v>5</v>
-      </c>
-      <c r="S38">
-        <f>R38-1</f>
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
       </c>
       <c r="U38" s="3">
         <v>0</v>
@@ -4029,7 +3994,7 @@
         <v>0.2</v>
       </c>
       <c r="I39">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -4038,32 +4003,31 @@
         <v>1</v>
       </c>
       <c r="L39" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M39" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N39" s="10">
         <v>17</v>
       </c>
       <c r="O39">
+        <v>11</v>
+      </c>
+      <c r="P39" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39" s="10">
+        <v>6</v>
+      </c>
+      <c r="T39" s="1">
         <v>5</v>
-      </c>
-      <c r="P39" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q39">
-        <v>4</v>
-      </c>
-      <c r="R39" s="10">
-        <v>5</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
       </c>
       <c r="U39" s="3">
         <v>0</v>
@@ -4104,7 +4068,7 @@
         <v>0.2</v>
       </c>
       <c r="I40">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -4113,32 +4077,31 @@
         <v>1</v>
       </c>
       <c r="L40" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M40" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N40" s="10">
         <v>17</v>
       </c>
       <c r="O40">
+        <v>11</v>
+      </c>
+      <c r="P40" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40" s="10">
+        <v>6</v>
+      </c>
+      <c r="T40" s="1">
         <v>5</v>
-      </c>
-      <c r="P40" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q40">
-        <v>4</v>
-      </c>
-      <c r="R40" s="10">
-        <v>5</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
       </c>
       <c r="U40" s="3">
         <v>0</v>
@@ -4179,7 +4142,7 @@
         <v>0.2</v>
       </c>
       <c r="I41">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -4189,32 +4152,31 @@
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M41" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N41" s="10">
         <v>17</v>
       </c>
       <c r="O41">
+        <v>13</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41" s="10">
+        <v>7</v>
+      </c>
+      <c r="T41" s="1">
         <v>5</v>
-      </c>
-      <c r="P41" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q41">
-        <v>4</v>
-      </c>
-      <c r="R41" s="10">
-        <v>5</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -4255,7 +4217,7 @@
         <v>0.2</v>
       </c>
       <c r="I42">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -4265,32 +4227,31 @@
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M42" s="6">
-        <v>6</v>
-      </c>
-      <c r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="N42" s="10">
+        <v>17</v>
       </c>
       <c r="O42">
+        <v>13</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42" s="10">
+        <v>7</v>
+      </c>
+      <c r="T42" s="1">
         <v>5</v>
-      </c>
-      <c r="P42" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q42">
-        <v>4</v>
-      </c>
-      <c r="R42" s="10">
-        <v>5</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -4331,7 +4292,7 @@
         <v>0.2</v>
       </c>
       <c r="I43">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -4341,32 +4302,31 @@
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M43" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N43" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O43">
+        <v>13</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43" s="10">
+        <v>7</v>
+      </c>
+      <c r="T43" s="1">
         <v>5</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q43">
-        <v>4</v>
-      </c>
-      <c r="R43" s="10">
-        <v>5</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -4407,7 +4367,7 @@
         <v>0.2</v>
       </c>
       <c r="I44">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -4417,32 +4377,31 @@
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M44" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N44" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O44">
+        <v>15</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="10">
+        <v>8</v>
+      </c>
+      <c r="T44" s="1">
         <v>5</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q44">
-        <v>4</v>
-      </c>
-      <c r="R44" s="10">
-        <v>5</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -4483,7 +4442,7 @@
         <v>0.2</v>
       </c>
       <c r="I45">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -4492,33 +4451,32 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L45" s="12">
-        <v>0</v>
+      <c r="L45" s="5">
+        <v>6</v>
       </c>
       <c r="M45" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N45" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O45">
+        <v>15</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="10">
+        <v>8</v>
+      </c>
+      <c r="T45" s="1">
         <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <v>4</v>
-      </c>
-      <c r="R45" s="10">
-        <v>5</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -4559,7 +4517,7 @@
         <v>0.2</v>
       </c>
       <c r="I46">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -4569,32 +4527,31 @@
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M46" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N46" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O46">
+        <v>15</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="10">
+        <v>8</v>
+      </c>
+      <c r="T46" s="1">
         <v>5</v>
-      </c>
-      <c r="P46" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="R46" s="10">
-        <v>5</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -4632,10 +4589,10 @@
         <v>-0.24</v>
       </c>
       <c r="H47">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I47">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -4645,40 +4602,40 @@
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M47" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N47" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P47" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3</v>
-      </c>
-      <c r="R47" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
       </c>
       <c r="S47" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="2">
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" s="1">
         <v>0</v>
@@ -4714,10 +4671,10 @@
         <v>-0.24</v>
       </c>
       <c r="H48">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I48">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -4727,40 +4684,40 @@
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N48" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P48" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="R48" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
       </c>
       <c r="S48" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="2">
         <v>2</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4789,10 +4746,10 @@
         <v>-0.24</v>
       </c>
       <c r="H49">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I49">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -4802,40 +4759,40 @@
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N49" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>3</v>
-      </c>
-      <c r="R49" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
       </c>
       <c r="S49" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="2">
         <v>2</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4864,10 +4821,10 @@
         <v>-0.24</v>
       </c>
       <c r="H50">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I50">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -4877,40 +4834,40 @@
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M50" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N50" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S50" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="2">
         <v>2</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4939,10 +4896,10 @@
         <v>-0.24</v>
       </c>
       <c r="H51">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I51">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -4952,40 +4909,40 @@
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N51" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S51" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="2">
         <v>2</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5014,10 +4971,10 @@
         <v>-0.24</v>
       </c>
       <c r="H52">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I52">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -5027,40 +4984,40 @@
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M52" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N52" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P52" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S52" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="2">
         <v>2</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5089,10 +5046,10 @@
         <v>-0.24</v>
       </c>
       <c r="H53">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I53">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -5102,40 +5059,40 @@
         <v>0</v>
       </c>
       <c r="L53" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M53" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N53" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S53" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="2">
         <v>2</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -5164,10 +5121,10 @@
         <v>-0.24</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I54">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -5177,40 +5134,40 @@
         <v>0</v>
       </c>
       <c r="L54" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N54" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P54" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S54" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2">
         <v>2</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5239,10 +5196,10 @@
         <v>-0.24</v>
       </c>
       <c r="H55">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I55">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -5252,40 +5209,41 @@
         <v>0</v>
       </c>
       <c r="L55" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M55" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N55" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P55" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S55" s="10">
-        <v>5</v>
+        <f>T55+2</f>
+        <v>11</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="2">
         <v>2</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -5314,10 +5272,10 @@
         <v>-0.24</v>
       </c>
       <c r="H56">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I56">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -5327,40 +5285,41 @@
         <v>0</v>
       </c>
       <c r="L56" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M56" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N56" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P56" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S56" s="10">
-        <v>5</v>
+        <f t="shared" ref="S56:S102" si="12">T56+2</f>
+        <v>11</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="2">
         <v>2</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -5389,10 +5348,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H57">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I57">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -5402,34 +5361,35 @@
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N57" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P57" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>4</v>
-      </c>
-      <c r="S57" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S57" s="10">
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5438,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z57"/>
       <c r="AA57"/>
@@ -5471,10 +5431,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H58">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I58">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -5484,34 +5444,35 @@
         <v>0</v>
       </c>
       <c r="L58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N58" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P58" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>4</v>
-      </c>
-      <c r="S58" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S58" s="10">
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5520,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:132" x14ac:dyDescent="0.25">
@@ -5546,10 +5507,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H59">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I59">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -5559,34 +5520,35 @@
         <v>0</v>
       </c>
       <c r="L59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N59" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>4</v>
-      </c>
-      <c r="S59" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5595,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:132" x14ac:dyDescent="0.25">
@@ -5621,10 +5583,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H60">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I60">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -5634,34 +5596,35 @@
         <v>0</v>
       </c>
       <c r="L60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N60" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P60" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>4</v>
-      </c>
-      <c r="S60" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S60" s="10">
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5670,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:132" x14ac:dyDescent="0.25">
@@ -5696,10 +5659,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H61">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I61">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -5709,34 +5672,35 @@
         <v>0</v>
       </c>
       <c r="L61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N61" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P61" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>4</v>
-      </c>
-      <c r="S61" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S61" s="10">
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5745,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:132" x14ac:dyDescent="0.25">
@@ -5771,10 +5735,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H62">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I62">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -5784,34 +5748,35 @@
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N62" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P62" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>4</v>
-      </c>
-      <c r="S62" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S62" s="10">
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5820,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:132" x14ac:dyDescent="0.25">
@@ -5846,10 +5811,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H63">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I63">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -5859,34 +5824,35 @@
         <v>0</v>
       </c>
       <c r="L63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N63" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P63" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>4</v>
-      </c>
-      <c r="S63" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S63" s="10">
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5895,7 +5861,7 @@
         <v>2</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:132" x14ac:dyDescent="0.25">
@@ -5921,10 +5887,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H64">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I64">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -5934,34 +5900,35 @@
         <v>0</v>
       </c>
       <c r="L64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N64" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P64" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>4</v>
-      </c>
-      <c r="S64" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -5970,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="X64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:132" x14ac:dyDescent="0.25">
@@ -5996,10 +5963,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H65">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I65">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -6009,34 +5976,35 @@
         <v>0</v>
       </c>
       <c r="L65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N65" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="P65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>4</v>
-      </c>
-      <c r="S65" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S65" s="10">
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6045,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:132" x14ac:dyDescent="0.25">
@@ -6071,10 +6039,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H66">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I66">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -6084,34 +6052,35 @@
         <v>0</v>
       </c>
       <c r="L66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N66" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="P66" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>4</v>
-      </c>
-      <c r="S66" s="11">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="S66" s="10">
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6120,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6146,10 +6115,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H67">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I67">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -6162,37 +6131,38 @@
         <v>0</v>
       </c>
       <c r="M67" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N67" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="P67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S67" s="10">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" s="2">
         <v>2</v>
@@ -6228,10 +6198,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H68">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I68">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -6244,37 +6214,38 @@
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N68" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S68" s="10">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="2">
         <v>2</v>
@@ -6303,10 +6274,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H69">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I69">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -6319,37 +6290,38 @@
         <v>0</v>
       </c>
       <c r="M69" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N69" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S69" s="10">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="2">
         <v>2</v>
@@ -6378,10 +6350,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H70">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I70">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -6394,37 +6366,38 @@
         <v>0</v>
       </c>
       <c r="M70" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N70" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S70" s="10">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="2">
         <v>2</v>
@@ -6453,10 +6426,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H71">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I71">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -6469,37 +6442,38 @@
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N71" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="P71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S71" s="10">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" s="2">
         <v>2</v>
@@ -6528,10 +6502,10 @@
         <v>-0.31</v>
       </c>
       <c r="H72">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I72">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -6544,37 +6518,38 @@
         <v>0</v>
       </c>
       <c r="M72" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N72" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="P72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S72" s="10">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="2">
         <v>2</v>
@@ -6603,10 +6578,10 @@
         <v>-0.31</v>
       </c>
       <c r="H73">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I73">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -6619,37 +6594,38 @@
         <v>0</v>
       </c>
       <c r="M73" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N73" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="P73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S73" s="10">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" s="2">
         <v>2</v>
@@ -6678,10 +6654,10 @@
         <v>-0.31</v>
       </c>
       <c r="H74">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I74">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -6694,37 +6670,38 @@
         <v>0</v>
       </c>
       <c r="M74" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N74" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="P74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S74" s="10">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="2">
         <v>2</v>
@@ -6753,10 +6730,10 @@
         <v>-0.31</v>
       </c>
       <c r="H75">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I75">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
@@ -6769,37 +6746,38 @@
         <v>0</v>
       </c>
       <c r="M75" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N75" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="P75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S75" s="10">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" s="2">
         <v>2</v>
@@ -6828,10 +6806,10 @@
         <v>-0.31</v>
       </c>
       <c r="H76">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I76">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -6844,37 +6822,38 @@
         <v>0</v>
       </c>
       <c r="M76" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N76" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="P76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S76" s="10">
-        <v>8</v>
+        <f>T76+2</f>
+        <v>21</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" s="2">
         <v>2</v>
@@ -6903,10 +6882,10 @@
         <v>-0.31</v>
       </c>
       <c r="H77">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I77">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -6919,34 +6898,35 @@
         <v>0</v>
       </c>
       <c r="M77" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N77" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S77" s="10">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>23</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="U77" s="3">
         <v>0</v>
       </c>
       <c r="V77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W77" s="2">
         <v>2</v>
@@ -6985,10 +6965,10 @@
         <v>-0.31</v>
       </c>
       <c r="H78">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I78">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J78" s="3">
         <v>0</v>
@@ -7001,34 +6981,35 @@
         <v>0</v>
       </c>
       <c r="M78" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N78" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S78" s="10">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>23</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="U78" s="3">
         <v>0</v>
       </c>
       <c r="V78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W78" s="2">
         <v>2</v>
@@ -7060,10 +7041,10 @@
         <v>-0.31</v>
       </c>
       <c r="H79">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I79">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J79" s="3">
         <v>0</v>
@@ -7076,34 +7057,35 @@
         <v>0</v>
       </c>
       <c r="M79" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N79" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S79" s="10">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>23</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="U79" s="3">
         <v>0</v>
       </c>
       <c r="V79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W79" s="2">
         <v>2</v>
@@ -7135,50 +7117,51 @@
         <v>-0.31</v>
       </c>
       <c r="H80">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I80">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J80" s="3">
         <v>0</v>
       </c>
       <c r="K80" s="4">
-        <f t="shared" ref="K80" si="14">J80</f>
+        <f t="shared" ref="K80" si="13">J80</f>
         <v>0</v>
       </c>
       <c r="L80" s="5">
         <v>0</v>
       </c>
       <c r="M80" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N80" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S80" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>25</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U80" s="3">
         <v>0</v>
       </c>
       <c r="V80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W80" s="2">
         <v>2</v>
@@ -7210,10 +7193,10 @@
         <v>-0.31</v>
       </c>
       <c r="H81">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I81">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -7226,34 +7209,35 @@
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N81" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S81" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>25</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W81" s="2">
         <v>2</v>
@@ -7285,50 +7269,51 @@
         <v>-0.31</v>
       </c>
       <c r="H82">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I82">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
       </c>
       <c r="K82" s="4">
-        <f t="shared" ref="K82:K102" si="15">J82</f>
+        <f t="shared" ref="K82:K102" si="14">J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="5">
         <v>0</v>
       </c>
       <c r="M82" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N82" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S82" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>25</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U82" s="3">
         <v>0</v>
       </c>
       <c r="V82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W82" s="2">
         <v>2</v>
@@ -7360,50 +7345,51 @@
         <v>-0.31</v>
       </c>
       <c r="H83">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I83">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L83" s="5">
         <v>0</v>
       </c>
       <c r="M83" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N83" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S83" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>27</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W83" s="2">
         <v>2</v>
@@ -7435,50 +7421,51 @@
         <v>-0.31</v>
       </c>
       <c r="H84">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I84">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
       </c>
       <c r="K84" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L84" s="5">
         <v>0</v>
       </c>
       <c r="M84" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N84" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S84" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>27</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="U84" s="3">
         <v>0</v>
       </c>
       <c r="V84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W84" s="2">
         <v>2</v>
@@ -7510,50 +7497,51 @@
         <v>-0.31</v>
       </c>
       <c r="H85">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I85">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J85" s="3">
         <v>0</v>
       </c>
       <c r="K85" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L85" s="5">
         <v>0</v>
       </c>
       <c r="M85" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N85" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S85" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>27</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="U85" s="3">
         <v>0</v>
       </c>
       <c r="V85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W85" s="2">
         <v>2</v>
@@ -7585,50 +7573,51 @@
         <v>-0.31</v>
       </c>
       <c r="H86">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I86">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J86" s="3">
         <v>0</v>
       </c>
       <c r="K86" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L86" s="5">
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N86" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S86" s="10">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>29</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="U86" s="3">
         <v>0</v>
       </c>
       <c r="V86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W86" s="2">
         <v>2</v>
@@ -7660,53 +7649,54 @@
         <v>-0.31</v>
       </c>
       <c r="H87">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I87">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J87" s="3">
         <v>0</v>
       </c>
       <c r="K87" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L87" s="5">
         <v>0</v>
       </c>
       <c r="M87" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N87" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S87" s="10">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>29</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="U87" s="3">
         <v>0</v>
       </c>
-      <c r="V87" s="2">
-        <v>1</v>
+      <c r="V87">
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X87" s="2">
         <v>2</v>
@@ -7742,53 +7732,54 @@
         <v>-0.31</v>
       </c>
       <c r="H88">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I88">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J88" s="3">
         <v>0</v>
       </c>
       <c r="K88" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L88" s="5">
         <v>0</v>
       </c>
       <c r="M88" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N88" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S88" s="10">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>29</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="U88" s="3">
         <v>0</v>
       </c>
-      <c r="V88" s="2">
-        <v>1</v>
+      <c r="V88">
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X88" s="2">
         <v>2</v>
@@ -7817,53 +7808,54 @@
         <v>-0.31</v>
       </c>
       <c r="H89">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I89">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L89" s="5">
         <v>0</v>
       </c>
       <c r="M89" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N89" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S89" s="10">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="2">
-        <v>1</v>
+      <c r="V89">
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X89" s="2">
         <v>2</v>
@@ -7892,53 +7884,54 @@
         <v>-0.31</v>
       </c>
       <c r="H90">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I90">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J90" s="3">
         <v>0</v>
       </c>
       <c r="K90" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L90" s="5">
         <v>0</v>
       </c>
       <c r="M90" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N90" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S90" s="10">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="U90" s="3">
         <v>0</v>
       </c>
-      <c r="V90" s="2">
-        <v>1</v>
+      <c r="V90">
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X90" s="2">
         <v>2</v>
@@ -7967,53 +7960,54 @@
         <v>-0.31</v>
       </c>
       <c r="H91">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I91">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L91" s="5">
         <v>0</v>
       </c>
       <c r="M91" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N91" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S91" s="10">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="2">
-        <v>1</v>
+      <c r="V91">
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X91" s="2">
         <v>2</v>
@@ -8042,53 +8036,54 @@
         <v>-0.37</v>
       </c>
       <c r="H92">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I92">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J92" s="3">
         <v>0</v>
       </c>
       <c r="K92" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L92" s="5">
         <v>0</v>
       </c>
       <c r="M92" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N92" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O92">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S92" s="10">
-        <v>10</v>
+        <f>T92+2</f>
+        <v>33</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="U92" s="3">
         <v>0</v>
       </c>
-      <c r="V92" s="2">
-        <v>1</v>
+      <c r="V92">
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X92" s="2">
         <v>2</v>
@@ -8117,53 +8112,54 @@
         <v>-0.37</v>
       </c>
       <c r="H93">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I93">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J93" s="3">
         <v>0</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L93" s="5">
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N93" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O93">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S93" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>33</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="U93" s="3">
         <v>0</v>
       </c>
-      <c r="V93" s="2">
-        <v>1</v>
+      <c r="V93">
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X93" s="2">
         <v>2</v>
@@ -8192,53 +8188,54 @@
         <v>-0.37</v>
       </c>
       <c r="H94">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I94">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L94" s="5">
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N94" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O94">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S94" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>33</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="2">
-        <v>1</v>
+      <c r="V94">
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X94" s="2">
         <v>2</v>
@@ -8267,53 +8264,54 @@
         <v>-0.37</v>
       </c>
       <c r="H95">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I95">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J95" s="3">
         <v>0</v>
       </c>
       <c r="K95" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L95" s="5">
         <v>0</v>
       </c>
       <c r="M95" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N95" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S95" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="U95" s="3">
         <v>0</v>
       </c>
-      <c r="V95" s="2">
-        <v>1</v>
+      <c r="V95">
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X95" s="2">
         <v>2</v>
@@ -8342,56 +8340,57 @@
         <v>-0.37</v>
       </c>
       <c r="H96">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I96">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L96" s="5">
         <v>0</v>
       </c>
       <c r="M96" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N96" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S96" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-      <c r="V96" s="2">
-        <v>1</v>
+      <c r="V96">
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X96" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8420,53 +8419,54 @@
         <v>0.1</v>
       </c>
       <c r="I97">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J97" s="3">
         <v>0</v>
       </c>
       <c r="K97" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L97" s="5">
         <v>0</v>
       </c>
       <c r="M97" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N97" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O97">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S97" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>37</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="U97" s="3">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>1</v>
-      </c>
-      <c r="W97" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>3</v>
       </c>
       <c r="X97" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z97"/>
       <c r="AA97"/>
@@ -8502,53 +8502,54 @@
         <v>0.1</v>
       </c>
       <c r="I98">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J98" s="3">
         <v>0</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L98" s="5">
         <v>0</v>
       </c>
       <c r="M98" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N98" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S98" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>37</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="U98" s="3">
         <v>0</v>
       </c>
       <c r="V98">
-        <v>1</v>
-      </c>
-      <c r="W98" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>3</v>
       </c>
       <c r="X98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:132" x14ac:dyDescent="0.25">
@@ -8577,53 +8578,54 @@
         <v>0.1</v>
       </c>
       <c r="I99">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J99" s="3">
         <v>0</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L99" s="5">
         <v>0</v>
       </c>
       <c r="M99" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N99" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O99">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S99" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>39</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="U99" s="3">
         <v>0</v>
       </c>
       <c r="V99">
-        <v>1</v>
-      </c>
-      <c r="W99" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>3</v>
       </c>
       <c r="X99" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:132" x14ac:dyDescent="0.25">
@@ -8652,53 +8654,54 @@
         <v>0.1</v>
       </c>
       <c r="I100">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L100" s="5">
         <v>0</v>
       </c>
       <c r="M100" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N100" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S100" s="10">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>39</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100">
-        <v>1</v>
-      </c>
-      <c r="W100" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>3</v>
       </c>
       <c r="X100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:132" x14ac:dyDescent="0.25">
@@ -8727,53 +8730,54 @@
         <v>0.1</v>
       </c>
       <c r="I101">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L101" s="5">
         <v>0</v>
       </c>
       <c r="M101" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N101" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S101" s="10">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>41</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101">
-        <v>1</v>
-      </c>
-      <c r="W101" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>3</v>
       </c>
       <c r="X101" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:132" x14ac:dyDescent="0.25">
@@ -8802,53 +8806,54 @@
         <v>0.1</v>
       </c>
       <c r="I102">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L102" s="5">
         <v>0</v>
       </c>
       <c r="M102" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N102" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="P102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S102" s="10">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>41</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102">
-        <v>1</v>
-      </c>
-      <c r="W102" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
       </c>
       <c r="X102" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">

--- a/trunk/TEMP/level.xlsx
+++ b/trunk/TEMP/level.xlsx
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X37" sqref="X34:X37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/TEMP/level.xlsx
+++ b/trunk/TEMP/level.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <f t="shared" ref="Q16:S46" si="11">R16-1</f>
+        <f t="shared" ref="Q16:S30" si="11">R16-1</f>
         <v>2</v>
       </c>
       <c r="T16">
@@ -5351,7 +5351,7 @@
         <v>0.16</v>
       </c>
       <c r="I57">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0.16</v>
       </c>
       <c r="I58">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0.16</v>
       </c>
       <c r="I59">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0.16</v>
       </c>
       <c r="I60">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>0.16</v>
       </c>
       <c r="I61">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0.16</v>
       </c>
       <c r="I62">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0.16</v>
       </c>
       <c r="I63">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0.16</v>
       </c>
       <c r="I64">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0.16</v>
       </c>
       <c r="I65">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0.16</v>
       </c>
       <c r="I66">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I67">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I68">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -6277,7 +6277,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I69">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I70">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I71">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I72">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I73">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I74">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I75">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I76">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0.12</v>
       </c>
       <c r="I77">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="X77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z77"/>
       <c r="AA77"/>
@@ -6968,7 +6968,7 @@
         <v>0.12</v>
       </c>
       <c r="I78">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J78" s="3">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>33</v>
       </c>
       <c r="O78">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P78" s="3">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:132" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
         <v>0.12</v>
       </c>
       <c r="I79">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J79" s="3">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>33</v>
       </c>
       <c r="O79">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P79" s="3">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="X79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:132" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>0.12</v>
       </c>
       <c r="I80">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J80" s="3">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>33</v>
       </c>
       <c r="O80">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P80" s="3">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="X80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:132" x14ac:dyDescent="0.25">
@@ -7196,7 +7196,7 @@
         <v>0.12</v>
       </c>
       <c r="I81">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>35</v>
       </c>
       <c r="O81">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="X81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:132" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>0.12</v>
       </c>
       <c r="I82">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>35</v>
       </c>
       <c r="O82">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P82" s="3">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>2</v>
       </c>
       <c r="X82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:132" x14ac:dyDescent="0.25">
@@ -7348,7 +7348,7 @@
         <v>0.12</v>
       </c>
       <c r="I83">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>35</v>
       </c>
       <c r="O83">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="X83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:132" x14ac:dyDescent="0.25">
@@ -7424,7 +7424,7 @@
         <v>0.12</v>
       </c>
       <c r="I84">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
@@ -7440,10 +7440,10 @@
         <v>18</v>
       </c>
       <c r="N84" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O84">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P84" s="3">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="X84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:132" x14ac:dyDescent="0.25">
@@ -7500,7 +7500,7 @@
         <v>0.12</v>
       </c>
       <c r="I85">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J85" s="3">
         <v>0</v>
@@ -7516,10 +7516,10 @@
         <v>18</v>
       </c>
       <c r="N85" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O85">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P85" s="3">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>2</v>
       </c>
       <c r="X85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:132" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
         <v>0.12</v>
       </c>
       <c r="I86">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J86" s="3">
         <v>0</v>
@@ -7592,10 +7592,10 @@
         <v>18</v>
       </c>
       <c r="N86" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O86">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="P86" s="3">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="X86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7652,7 +7652,7 @@
         <v>0.1</v>
       </c>
       <c r="I87">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J87" s="3">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>18</v>
       </c>
       <c r="N87" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O87">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="P87" s="3">
         <v>0</v>
@@ -7735,7 +7735,7 @@
         <v>0.1</v>
       </c>
       <c r="I88">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J88" s="3">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>18</v>
       </c>
       <c r="N88" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O88">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="P88" s="3">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>0.1</v>
       </c>
       <c r="I89">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -7827,10 +7827,10 @@
         <v>18</v>
       </c>
       <c r="N89" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O89">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>0.1</v>
       </c>
       <c r="I90">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J90" s="3">
         <v>0</v>
@@ -7903,10 +7903,10 @@
         <v>18</v>
       </c>
       <c r="N90" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O90">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="P90" s="3">
         <v>0</v>
@@ -7963,7 +7963,7 @@
         <v>0.1</v>
       </c>
       <c r="I91">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -7979,10 +7979,10 @@
         <v>18</v>
       </c>
       <c r="N91" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O91">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>0.1</v>
       </c>
       <c r="I92">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J92" s="3">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>18</v>
       </c>
       <c r="N92" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O92">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="P92" s="3">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0.1</v>
       </c>
       <c r="I93">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J93" s="3">
         <v>0</v>
@@ -8131,10 +8131,10 @@
         <v>18</v>
       </c>
       <c r="N93" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O93">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="P93" s="3">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>0.1</v>
       </c>
       <c r="I94">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -8207,10 +8207,10 @@
         <v>18</v>
       </c>
       <c r="N94" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O94">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0.1</v>
       </c>
       <c r="I95">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J95" s="3">
         <v>0</v>
@@ -8283,10 +8283,10 @@
         <v>18</v>
       </c>
       <c r="N95" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O95">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P95" s="3">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         <v>0.1</v>
       </c>
       <c r="I96">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -8359,10 +8359,10 @@
         <v>18</v>
       </c>
       <c r="N96" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O96">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         <v>0.1</v>
       </c>
       <c r="I97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J97" s="3">
         <v>0</v>
@@ -8435,10 +8435,10 @@
         <v>18</v>
       </c>
       <c r="N97" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O97">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P97" s="3">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>0.1</v>
       </c>
       <c r="I98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J98" s="3">
         <v>0</v>
@@ -8518,10 +8518,10 @@
         <v>18</v>
       </c>
       <c r="N98" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O98">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="P98" s="3">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>0.1</v>
       </c>
       <c r="I99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J99" s="3">
         <v>0</v>
@@ -8594,10 +8594,10 @@
         <v>18</v>
       </c>
       <c r="N99" s="7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O99">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="P99" s="3">
         <v>0</v>
@@ -8670,10 +8670,10 @@
         <v>18</v>
       </c>
       <c r="N100" s="7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O100">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0.1</v>
       </c>
       <c r="I101">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -8746,10 +8746,10 @@
         <v>18</v>
       </c>
       <c r="N101" s="7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O101">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -8806,7 +8806,7 @@
         <v>0.1</v>
       </c>
       <c r="I102">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -8822,10 +8822,10 @@
         <v>18</v>
       </c>
       <c r="N102" s="7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O102">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
